--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Lgi4</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi4</t>
-  </si>
-  <si>
-    <t>Adam22</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H2">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I2">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J2">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N2">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O2">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P2">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q2">
-        <v>0.120425344052</v>
+        <v>0.3248922893526667</v>
       </c>
       <c r="R2">
-        <v>1.083828096468</v>
+        <v>2.924030604174</v>
       </c>
       <c r="S2">
-        <v>0.003122358964459454</v>
+        <v>0.0162722417536932</v>
       </c>
       <c r="T2">
-        <v>0.003122358964459453</v>
+        <v>0.0162722417536932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H3">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J3">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q3">
-        <v>0.07964515092666667</v>
+        <v>0.2210488366627778</v>
       </c>
       <c r="R3">
-        <v>0.7168063583399999</v>
+        <v>1.989439529965</v>
       </c>
       <c r="S3">
-        <v>0.002065020058105234</v>
+        <v>0.01107123876875054</v>
       </c>
       <c r="T3">
-        <v>0.002065020058105234</v>
+        <v>0.01107123876875054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H4">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J4">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N4">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O4">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P4">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q4">
-        <v>0.05971276104266666</v>
+        <v>0.04004318759655556</v>
       </c>
       <c r="R4">
-        <v>0.537414849384</v>
+        <v>0.360388688369</v>
       </c>
       <c r="S4">
-        <v>0.001548217912117305</v>
+        <v>0.002005564460941532</v>
       </c>
       <c r="T4">
-        <v>0.001548217912117304</v>
+        <v>0.002005564460941532</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H5">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J5">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N5">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q5">
-        <v>0.249079369148</v>
+        <v>0.3237830979208889</v>
       </c>
       <c r="R5">
-        <v>2.241714322332</v>
+        <v>2.914047881288</v>
       </c>
       <c r="S5">
-        <v>0.006458069165119791</v>
+        <v>0.01621668786177113</v>
       </c>
       <c r="T5">
-        <v>0.00645806916511979</v>
+        <v>0.01621668786177113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H6">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I6">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J6">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N6">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q6">
-        <v>0.01204220912666667</v>
+        <v>0.02296912162077778</v>
       </c>
       <c r="R6">
-        <v>0.10837988214</v>
+        <v>0.206722094587</v>
       </c>
       <c r="S6">
-        <v>0.0003122274627034263</v>
+        <v>0.001150409265261345</v>
       </c>
       <c r="T6">
-        <v>0.0003122274627034263</v>
+        <v>0.001150409265261345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.070204</v>
+        <v>0.1948456666666667</v>
       </c>
       <c r="H7">
-        <v>0.210612</v>
+        <v>0.584537</v>
       </c>
       <c r="I7">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="J7">
-        <v>0.01768138548345256</v>
+        <v>0.05047628636869034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N7">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O7">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P7">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q7">
-        <v>0.1610433191346667</v>
+        <v>0.07507520444066666</v>
       </c>
       <c r="R7">
-        <v>1.449389872212</v>
+        <v>0.6756768399659999</v>
       </c>
       <c r="S7">
-        <v>0.00417549192094735</v>
+        <v>0.003760144258272598</v>
       </c>
       <c r="T7">
-        <v>0.00417549192094735</v>
+        <v>0.0037601442582726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.250698</v>
       </c>
       <c r="I8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J8">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N8">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O8">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P8">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q8">
-        <v>3.002284357791333</v>
+        <v>2.918397456310667</v>
       </c>
       <c r="R8">
-        <v>27.020559220122</v>
+        <v>26.265577106796</v>
       </c>
       <c r="S8">
-        <v>0.07784249696109112</v>
+        <v>0.1461680393741258</v>
       </c>
       <c r="T8">
-        <v>0.07784249696109111</v>
+        <v>0.1461680393741259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.250698</v>
       </c>
       <c r="I9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J9">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q9">
         <v>1.985606872734444</v>
@@ -1013,10 +1013,10 @@
         <v>17.87046185461</v>
       </c>
       <c r="S9">
-        <v>0.05148233096429944</v>
+        <v>0.09944919014639092</v>
       </c>
       <c r="T9">
-        <v>0.05148233096429944</v>
+        <v>0.09944919014639096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>5.250698</v>
       </c>
       <c r="I10">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J10">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N10">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O10">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P10">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q10">
-        <v>1.488679063781778</v>
+        <v>0.3596943992028889</v>
       </c>
       <c r="R10">
-        <v>13.398111574036</v>
+        <v>3.237249592826</v>
       </c>
       <c r="S10">
-        <v>0.03859810787000981</v>
+        <v>0.01801530665113889</v>
       </c>
       <c r="T10">
-        <v>0.0385981078700098</v>
+        <v>0.0180153066511389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>5.250698</v>
       </c>
       <c r="I11">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J11">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N11">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q11">
-        <v>6.209715236675333</v>
+        <v>2.908433965150222</v>
       </c>
       <c r="R11">
-        <v>55.887437130078</v>
+        <v>26.175905686352</v>
       </c>
       <c r="S11">
-        <v>0.1610039829124463</v>
+        <v>0.1456690175684789</v>
       </c>
       <c r="T11">
-        <v>0.1610039829124463</v>
+        <v>0.1456690175684789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>5.250698</v>
       </c>
       <c r="I12">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J12">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N12">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q12">
-        <v>0.3002203263677777</v>
+        <v>0.2063238442664444</v>
       </c>
       <c r="R12">
-        <v>2.70198293731</v>
+        <v>1.856914598398</v>
       </c>
       <c r="S12">
-        <v>0.007784039437268318</v>
+        <v>0.01033373700602222</v>
       </c>
       <c r="T12">
-        <v>0.007784039437268318</v>
+        <v>0.01033373700602222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.250698</v>
       </c>
       <c r="I13">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="J13">
-        <v>0.4408087639602367</v>
+        <v>0.4534113937757741</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N13">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O13">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P13">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q13">
-        <v>4.014917638566444</v>
+        <v>0.6743751478626666</v>
       </c>
       <c r="R13">
-        <v>36.134258747098</v>
+        <v>6.069376330764</v>
       </c>
       <c r="S13">
-        <v>0.1040978058151217</v>
+        <v>0.03377610302961731</v>
       </c>
       <c r="T13">
-        <v>0.1040978058151217</v>
+        <v>0.03377610302961733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H14">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I14">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J14">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N14">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O14">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P14">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q14">
-        <v>3.395059028928667</v>
+        <v>0.3182809135426667</v>
       </c>
       <c r="R14">
-        <v>30.55553126035801</v>
+        <v>2.864528221884</v>
       </c>
       <c r="S14">
-        <v>0.08802626288754521</v>
+        <v>0.01594111076342197</v>
       </c>
       <c r="T14">
-        <v>0.0880262628875452</v>
+        <v>0.01594111076342197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H15">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I15">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J15">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.403445</v>
       </c>
       <c r="O15">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P15">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q15">
-        <v>2.245374434198889</v>
+        <v>0.2165506168544445</v>
       </c>
       <c r="R15">
-        <v>20.20836990779</v>
+        <v>1.94895555169</v>
       </c>
       <c r="S15">
-        <v>0.05821752097433629</v>
+        <v>0.01084594527124005</v>
       </c>
       <c r="T15">
-        <v>0.05821752097433629</v>
+        <v>0.01084594527124006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H16">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I16">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J16">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N16">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O16">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P16">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q16">
-        <v>1.683435908911556</v>
+        <v>0.03922833119488889</v>
       </c>
       <c r="R16">
-        <v>15.150923180204</v>
+        <v>0.353054980754</v>
       </c>
       <c r="S16">
-        <v>0.04364771587460247</v>
+        <v>0.001964752349367928</v>
       </c>
       <c r="T16">
-        <v>0.04364771587460246</v>
+        <v>0.001964752349367929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H17">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I17">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J17">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N17">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O17">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P17">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q17">
-        <v>7.022102928604667</v>
+        <v>0.3171942935342223</v>
       </c>
       <c r="R17">
-        <v>63.19892635744201</v>
+        <v>2.854748641808</v>
       </c>
       <c r="S17">
-        <v>0.1820673729528085</v>
+        <v>0.01588668736203242</v>
       </c>
       <c r="T17">
-        <v>0.1820673729528085</v>
+        <v>0.01588668736203242</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H18">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I18">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J18">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N18">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O18">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P18">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q18">
-        <v>0.3394967325655556</v>
+        <v>0.02250171288244445</v>
       </c>
       <c r="R18">
-        <v>3.055470593090001</v>
+        <v>0.202515415942</v>
       </c>
       <c r="S18">
-        <v>0.008802388522743452</v>
+        <v>0.00112699908214157</v>
       </c>
       <c r="T18">
-        <v>0.008802388522743452</v>
+        <v>0.00112699908214157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.979207333333334</v>
+        <v>0.1908806666666667</v>
       </c>
       <c r="H19">
-        <v>5.937622000000001</v>
+        <v>0.5726420000000001</v>
       </c>
       <c r="I19">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="J19">
-        <v>0.4984776909056871</v>
+        <v>0.04944912226042078</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N19">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O19">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P19">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q19">
-        <v>4.54017033524689</v>
+        <v>0.07354746615066668</v>
       </c>
       <c r="R19">
-        <v>40.861533017222</v>
+        <v>0.6619271953560001</v>
       </c>
       <c r="S19">
-        <v>0.1177164296936511</v>
+        <v>0.003683627432216844</v>
       </c>
       <c r="T19">
-        <v>0.1177164296936511</v>
+        <v>0.003683627432216846</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H20">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I20">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J20">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N20">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O20">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P20">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q20">
-        <v>0.2930857786046667</v>
+        <v>2.747733918976667</v>
       </c>
       <c r="R20">
-        <v>2.637772007442</v>
+        <v>24.72960527079</v>
       </c>
       <c r="S20">
-        <v>0.007599056622057137</v>
+        <v>0.1376203500966348</v>
       </c>
       <c r="T20">
-        <v>0.007599056622057135</v>
+        <v>0.1376203500966349</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H21">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I21">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J21">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.403445</v>
       </c>
       <c r="O21">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P21">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q21">
-        <v>0.1938367812455556</v>
+        <v>1.869491539669444</v>
       </c>
       <c r="R21">
-        <v>1.74453103121</v>
+        <v>16.825423857025</v>
       </c>
       <c r="S21">
-        <v>0.005025752812486775</v>
+        <v>0.0936335496006921</v>
       </c>
       <c r="T21">
-        <v>0.005025752812486774</v>
+        <v>0.09363354960069215</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H22">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I22">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J22">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N22">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O22">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P22">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q22">
-        <v>0.1453262284662222</v>
+        <v>0.3386600063738889</v>
       </c>
       <c r="R22">
-        <v>1.307936056196</v>
+        <v>3.047940057365</v>
       </c>
       <c r="S22">
-        <v>0.003767983025455642</v>
+        <v>0.0169617983455475</v>
       </c>
       <c r="T22">
-        <v>0.003767983025455641</v>
+        <v>0.0169617983455475</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H23">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I23">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J23">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N23">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O23">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P23">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q23">
-        <v>0.6061981505286667</v>
+        <v>2.738353077942222</v>
       </c>
       <c r="R23">
-        <v>5.455783354757999</v>
+        <v>24.64517770148</v>
       </c>
       <c r="S23">
-        <v>0.01571735787380953</v>
+        <v>0.1371505103430673</v>
       </c>
       <c r="T23">
-        <v>0.01571735787380952</v>
+        <v>0.1371505103430673</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1708593333333333</v>
+        <v>1.647881666666667</v>
       </c>
       <c r="H24">
-        <v>0.512578</v>
+        <v>4.943645</v>
       </c>
       <c r="I24">
-        <v>0.04303215965062364</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="J24">
-        <v>0.04303215965062363</v>
+        <v>0.4268965706621552</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N24">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O24">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P24">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q24">
-        <v>0.02930778621222222</v>
+        <v>0.1942583330994444</v>
       </c>
       <c r="R24">
-        <v>0.26377007591</v>
+        <v>1.748324997895</v>
       </c>
       <c r="S24">
-        <v>0.0007598851365430121</v>
+        <v>0.009729435454321832</v>
       </c>
       <c r="T24">
-        <v>0.000759885136543012</v>
+        <v>0.009729435454321833</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.647881666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.943645</v>
+      </c>
+      <c r="I25">
+        <v>0.4268965706621552</v>
+      </c>
+      <c r="J25">
+        <v>0.4268965706621552</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.385306</v>
+      </c>
+      <c r="N25">
+        <v>1.155918</v>
+      </c>
+      <c r="O25">
+        <v>0.07449328246550557</v>
+      </c>
+      <c r="P25">
+        <v>0.0744932824655056</v>
+      </c>
+      <c r="Q25">
+        <v>0.6349386934566666</v>
+      </c>
+      <c r="R25">
+        <v>5.71444824111</v>
+      </c>
+      <c r="S25">
+        <v>0.03180092682189158</v>
+      </c>
+      <c r="T25">
+        <v>0.0318009268218916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.228906</v>
+      </c>
+      <c r="I26">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J26">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.667434</v>
+      </c>
+      <c r="N26">
+        <v>5.002302</v>
+      </c>
+      <c r="O26">
+        <v>0.3223739883484499</v>
+      </c>
+      <c r="P26">
+        <v>0.32237398834845</v>
+      </c>
+      <c r="Q26">
+        <v>0.127228549068</v>
+      </c>
+      <c r="R26">
+        <v>1.145056941612</v>
+      </c>
+      <c r="S26">
+        <v>0.006372246360574089</v>
+      </c>
+      <c r="T26">
+        <v>0.00637224636057409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.228906</v>
+      </c>
+      <c r="I27">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J27">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.134481666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.403445</v>
+      </c>
+      <c r="O27">
+        <v>0.2193354457157105</v>
+      </c>
+      <c r="P27">
+        <v>0.2193354457157106</v>
+      </c>
+      <c r="Q27">
+        <v>0.08656322012999999</v>
+      </c>
+      <c r="R27">
+        <v>0.77906898117</v>
+      </c>
+      <c r="S27">
+        <v>0.004335521928636872</v>
+      </c>
+      <c r="T27">
+        <v>0.004335521928636872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.228906</v>
+      </c>
+      <c r="I28">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J28">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2055123333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.616537</v>
+      </c>
+      <c r="O28">
+        <v>0.03973280534729575</v>
+      </c>
+      <c r="P28">
+        <v>0.03973280534729576</v>
+      </c>
+      <c r="Q28">
+        <v>0.015681002058</v>
+      </c>
+      <c r="R28">
+        <v>0.141129018522</v>
+      </c>
+      <c r="S28">
+        <v>0.0007853835402998992</v>
+      </c>
+      <c r="T28">
+        <v>0.0007853835402998995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.228906</v>
+      </c>
+      <c r="I29">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J29">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.661741333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.985224</v>
+      </c>
+      <c r="O29">
+        <v>0.3212733944672698</v>
+      </c>
+      <c r="P29">
+        <v>0.3212733944672699</v>
+      </c>
+      <c r="Q29">
+        <v>0.126794187216</v>
+      </c>
+      <c r="R29">
+        <v>1.141147684944</v>
+      </c>
+      <c r="S29">
+        <v>0.006350491331920104</v>
+      </c>
+      <c r="T29">
+        <v>0.006350491331920105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.228906</v>
+      </c>
+      <c r="I30">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J30">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="L30">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.1708593333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.512578</v>
-      </c>
-      <c r="I25">
-        <v>0.04303215965062364</v>
-      </c>
-      <c r="J25">
-        <v>0.04303215965062363</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.293933666666666</v>
-      </c>
-      <c r="N25">
-        <v>6.881800999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.2361518516099917</v>
-      </c>
-      <c r="P25">
-        <v>0.2361518516099917</v>
-      </c>
-      <c r="Q25">
-        <v>0.3919399769975555</v>
-      </c>
-      <c r="R25">
-        <v>3.527459792978</v>
-      </c>
-      <c r="S25">
-        <v>0.01016212418027155</v>
-      </c>
-      <c r="T25">
-        <v>0.01016212418027155</v>
+      <c r="M30">
+        <v>0.1178836666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.353651</v>
+      </c>
+      <c r="O30">
+        <v>0.02279108365576842</v>
+      </c>
+      <c r="P30">
+        <v>0.02279108365576842</v>
+      </c>
+      <c r="Q30">
+        <v>0.008994759533999998</v>
+      </c>
+      <c r="R30">
+        <v>0.080952835806</v>
+      </c>
+      <c r="S30">
+        <v>0.0004505028480214483</v>
+      </c>
+      <c r="T30">
+        <v>0.0004505028480214484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07630199999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.228906</v>
+      </c>
+      <c r="I31">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="J31">
+        <v>0.01976662693295965</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.385306</v>
+      </c>
+      <c r="N31">
+        <v>1.155918</v>
+      </c>
+      <c r="O31">
+        <v>0.07449328246550557</v>
+      </c>
+      <c r="P31">
+        <v>0.0744932824655056</v>
+      </c>
+      <c r="Q31">
+        <v>0.029399618412</v>
+      </c>
+      <c r="R31">
+        <v>0.264596565708</v>
+      </c>
+      <c r="S31">
+        <v>0.001472480923507233</v>
+      </c>
+      <c r="T31">
+        <v>0.001472480923507234</v>
       </c>
     </row>
   </sheetData>
